--- a/com.supermarket/src/main/resources/ExcelFiles/PushNotifications.xlsx
+++ b/com.supermarket/src/main/resources/ExcelFiles/PushNotifications.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6422D68-BBA2-45A8-A4DB-AA932EA90A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48C2E3E-BC62-4AC2-9033-517E943FFEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Notification" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +22,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>at 4pm</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,12 +348,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>